--- a/output1.xlsx
+++ b/output1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,412 +442,1852 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.48089674762539</v>
+        <v>0.4949728823856459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20.36663495683975</v>
+        <v>19.79167470021633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19.26097603402759</v>
+        <v>16.12692414270759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20.35554334722591</v>
+        <v>4.901979352292681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20.00894990533643</v>
+        <v>15.05606329018788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17.88124259440279</v>
+        <v>-1.076755491397683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18.25232697120341</v>
+        <v>-1.807890554128325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16.97754184964035</v>
+        <v>16.71399971319402</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16.59452693525739</v>
+        <v>11.93833410469825</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15.18982936438932</v>
+        <v>-3.628885721217391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>15.13095544165683</v>
+        <v>-10.54057006069997</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13.11294817665267</v>
+        <v>6.191126993145814</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.37967864786327</v>
+        <v>-6.321104226041479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12.07840105602923</v>
+        <v>9.794824914250032</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13.91237633658658</v>
+        <v>9.508289576490698</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11.36123315968817</v>
+        <v>0.2378426817883199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11.00760529495478</v>
+        <v>7.659745002730132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.686164433351298</v>
+        <v>7.277331933559664</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.443101798889746</v>
+        <v>8.859495801549455</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.121119315807915</v>
+        <v>8.783743063388659</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.302628649751664</v>
+        <v>6.207959019511695</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.716402839138323</v>
+        <v>7.833230409281598</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.358413295137231</v>
+        <v>9.548508868080587</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7.344365294546589</v>
+        <v>8.111002295194607</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.201541017448882</v>
+        <v>7.093787288494745</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.248302295161073</v>
+        <v>8.076728466921635</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.109320990939371</v>
+        <v>9.207056308408282</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.410962229278023</v>
+        <v>4.651615803882018</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.038965793830325</v>
+        <v>8.187548925130013</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.122890280857614</v>
+        <v>7.242624823855805</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.5548961330974461</v>
+        <v>2.335563425388576</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.6227098815769861</v>
+        <v>7.426948605228951</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.6879976146421394</v>
+        <v>1.310306796469995</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7577578395264566</v>
+        <v>3.911640899930578</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-2.024882416518488</v>
+        <v>-0.7512631115770637</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.7334571991097285</v>
+        <v>1.196431168210625</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-2.187926630984585</v>
+        <v>0.88253771105111</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-2.23255184978262</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-4.142971131156611</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-3.392283145768318</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-2.024882416518488</v>
+        <v>-3.214054196912894</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-5.966419378797093</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.072816065976816</v>
+        <v>-3.351906290455041</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-0.1278026323682906</v>
+        <v>-2.245345644943343</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.072816065976816</v>
+        <v>-3.693333007192717</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-3.086556251679808</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-3.99170686077878</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-4.168961430588454</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-1.384181953555207</v>
+        <v>-3.190103401087284</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-2.819855975351046</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-3.605887564447945</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-3.596779172633316</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-2.376839543224286</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-2.237129696730937</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-2.293432335234566</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-0.6304453145890879</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-1.431109232283986</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.1278026323682906</v>
+        <v>-1.602914578091583</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.1278026323682906</v>
+        <v>-1.371123469341088</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.384181953555207</v>
+        <v>-1.54706546976072</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-1.636529616803069</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.9791312265044169</v>
+        <v>1.167441214330479</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.1278026323682906</v>
+        <v>-0.3588358144731914</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-0.2183759524627231</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-2.226937730113675</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.9791312265044169</v>
+        <v>0.2357399161327786</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.1278026323682906</v>
+        <v>1.50129836977302</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-0.1278026323682906</v>
+        <v>-1.837153160757816</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-1.157407004979599</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.9791312265044169</v>
+        <v>-1.171036756233946</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-0.1278026323682906</v>
+        <v>0.9669230648091021</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.1278026323682906</v>
+        <v>-1.08410033415884</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.9791312265044169</v>
+        <v>1.899773220663775</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.1278026323682906</v>
+        <v>0.2137571600424097</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-0.1278026323682906</v>
+        <v>0.2022810349831273</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-0.1278026323682906</v>
+        <v>0.2022810349831273</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-0.9791312265044169</v>
+        <v>0.2022810349831273</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.1278026323682906</v>
+        <v>0.2022810349831273</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-0.1278026323682906</v>
+        <v>0.2022810349831273</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3143025748812543</v>
+        <v>0.4682108239227917</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-0.9791312265044169</v>
+        <v>0.2022810349831273</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.3143025748812543</v>
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.4682108239227917</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.2022810349831273</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.621401753832403</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.668279697917845</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-1.173712503969794</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.385333286802247</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.547756508095098</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-0.7600628920762834</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-0.04551865998275012</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.2586986505399171</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.439281572004494</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.276972315704857</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.32795077924328</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.32795077924328</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.276972315704857</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.32795077924328</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.32795077924328</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.276972315704857</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.32795077924328</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.32795077924328</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.331849433579404</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.331849433579404</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.331849433579404</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.331849433579404</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1.307076017717862</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>-0.5314379385721718</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>-0.5314379385721718</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>0.489314964329899</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>-0.5314379385721718</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>0.3788778634864053</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>-0.5314379385721718</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>-0.5314379385721718</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>-0.608659735818625</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>-0.608659735818625</v>
       </c>
     </row>
   </sheetData>
